--- a/Team-Data/2009-10/4-13-2009-10.xlsx
+++ b/Team-Data/2009-10/4-13-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.638</v>
+        <v>0.642</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,19 +751,19 @@
         <v>38.7</v>
       </c>
       <c r="J2" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K2" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
       </c>
       <c r="M2" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O2" t="n">
         <v>17.8</v>
@@ -714,16 +781,16 @@
         <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>11.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X2" t="n">
         <v>5.1</v>
@@ -732,25 +799,25 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="n">
         <v>8</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -774,25 +841,25 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -801,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.608</v>
+        <v>0.625</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O3" t="n">
         <v>19.1</v>
@@ -887,28 +954,28 @@
         <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -923,25 +990,25 @@
         <v>99.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,28 +1017,28 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP3" t="n">
         <v>10</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,16 +1047,16 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -1030,49 +1097,49 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
         <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.55</v>
+        <v>0.543</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
         <v>16.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P4" t="n">
         <v>26.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
         <v>30.4</v>
@@ -1081,10 +1148,10 @@
         <v>40.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.6</v>
@@ -1096,25 +1163,25 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1138,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
@@ -1147,10 +1214,10 @@
         <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>18</v>
@@ -1159,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>29</v>
@@ -1168,10 +1235,10 @@
         <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1180,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.494</v>
+        <v>0.488</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1239,10 +1306,10 @@
         <v>4.3</v>
       </c>
       <c r="M5" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O5" t="n">
         <v>18</v>
@@ -1251,16 +1318,16 @@
         <v>23.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
         <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U5" t="n">
         <v>20.8</v>
@@ -1275,7 +1342,7 @@
         <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
         <v>20.1</v>
@@ -1284,31 +1351,31 @@
         <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF5" t="n">
         <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1344,25 +1411,25 @@
         <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB5" t="n">
         <v>24</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
         <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.772</v>
+        <v>0.753</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J6" t="n">
         <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.489</v>
+        <v>0.486</v>
       </c>
       <c r="L6" t="n">
         <v>7.4</v>
@@ -1427,52 +1494,52 @@
         <v>0.383</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T6" t="n">
         <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.7</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>27</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR6" t="n">
         <v>27</v>
@@ -1523,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1541,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -1576,43 +1643,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
         <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.675</v>
+        <v>0.667</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
         <v>18.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8179999999999999</v>
@@ -1627,16 +1694,16 @@
         <v>41.6</v>
       </c>
       <c r="U7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
@@ -1645,16 +1712,16 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1669,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
@@ -1684,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1699,10 +1766,10 @@
         <v>23</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>3</v>
@@ -1714,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -1761,97 +1828,97 @@
         <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.642</v>
+        <v>0.654</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O8" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
         <v>21</v>
       </c>
       <c r="V8" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1878,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
@@ -1887,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV8" t="n">
         <v>12</v>
@@ -1899,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>55</v>
       </c>
       <c r="G9" t="n">
-        <v>0.313</v>
+        <v>0.321</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I9" t="n">
         <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
@@ -1976,10 +2043,10 @@
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
         <v>12.9</v>
@@ -1988,16 +2055,16 @@
         <v>27.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U9" t="n">
         <v>19.4</v>
       </c>
       <c r="V9" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>3.8</v>
@@ -2015,10 +2082,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.6</v>
+        <v>-5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2045,7 +2112,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
@@ -2072,10 +2139,10 @@
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX9" t="n">
         <v>27</v>
@@ -2087,7 +2154,7 @@
         <v>24</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -2137,34 +2204,34 @@
         <v>48.1</v>
       </c>
       <c r="I10" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="J10" t="n">
         <v>86.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L10" t="n">
         <v>7.7</v>
       </c>
       <c r="M10" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R10" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S10" t="n">
         <v>29.2</v>
@@ -2173,7 +2240,7 @@
         <v>38.4</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
@@ -2182,7 +2249,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2194,22 +2261,22 @@
         <v>21.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
         <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
         <v>25</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
         <v>7</v>
@@ -2233,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -2251,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -2304,13 +2371,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="n">
         <v>0.519</v>
@@ -2319,7 +2386,7 @@
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J11" t="n">
         <v>84.40000000000001</v>
@@ -2334,7 +2401,7 @@
         <v>22.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O11" t="n">
         <v>19.1</v>
@@ -2349,10 +2416,10 @@
         <v>11.9</v>
       </c>
       <c r="S11" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T11" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U11" t="n">
         <v>21.7</v>
@@ -2361,28 +2428,28 @@
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" t="n">
         <v>6.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
         <v>22.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
@@ -2394,13 +2461,13 @@
         <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI11" t="n">
         <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2415,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2424,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
         <v>21</v>
       </c>
       <c r="AT11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
@@ -2439,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
@@ -2448,13 +2515,13 @@
         <v>30</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.395</v>
       </c>
       <c r="H12" t="n">
         <v>48.1</v>
@@ -2504,34 +2571,34 @@
         <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>8.1</v>
       </c>
       <c r="M12" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
         <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
         <v>41.5</v>
@@ -2540,10 +2607,10 @@
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.4</v>
@@ -2558,13 +2625,13 @@
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,13 +2643,13 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2615,19 +2682,19 @@
         <v>19</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
-        <v>0.354</v>
+        <v>0.346</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.331</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
@@ -2719,13 +2786,13 @@
         <v>41.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,25 +2801,25 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
@@ -2767,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
@@ -2791,19 +2858,19 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2815,10 +2882,10 @@
         <v>2</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -2871,43 +2938,43 @@
         <v>83.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
         <v>11.8</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V14" t="n">
         <v>13.3</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
@@ -2919,16 +2986,16 @@
         <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC14" t="n">
         <v>5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2943,13 +3010,13 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2964,13 +3031,13 @@
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
@@ -2988,10 +3055,10 @@
         <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -3032,49 +3099,49 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M15" t="n">
         <v>12.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O15" t="n">
         <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S15" t="n">
         <v>30.5</v>
@@ -3083,7 +3150,7 @@
         <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3104,13 +3171,13 @@
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.8</v>
+        <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3131,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3146,7 +3213,7 @@
         <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
         <v>25</v>
@@ -3158,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
@@ -3182,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
         <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
         <v>79.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -3244,22 +3311,22 @@
         <v>17.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
         <v>17.8</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
         <v>41.7</v>
@@ -3271,10 +3338,10 @@
         <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
         <v>4.3</v>
@@ -3283,16 +3350,16 @@
         <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3313,25 +3380,25 @@
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>19</v>
@@ -3340,10 +3407,10 @@
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3361,13 +3428,13 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -3489,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3513,16 +3580,16 @@
         <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS17" t="n">
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3531,10 +3598,10 @@
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>66</v>
       </c>
       <c r="G18" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="H18" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I18" t="n">
         <v>37.9</v>
       </c>
       <c r="J18" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P18" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.745</v>
@@ -3626,37 +3693,37 @@
         <v>31.2</v>
       </c>
       <c r="T18" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z18" t="n">
         <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,43 +3735,43 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP18" t="n">
         <v>22</v>
       </c>
-      <c r="AO18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>12</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3713,19 +3780,19 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3784,31 +3851,31 @@
         <v>0.43</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="O19" t="n">
         <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R19" t="n">
         <v>10.9</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T19" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U19" t="n">
         <v>18.9</v>
@@ -3817,10 +3884,10 @@
         <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
@@ -3835,10 +3902,10 @@
         <v>92.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,19 +3932,19 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3889,25 +3956,25 @@
         <v>28</v>
       </c>
       <c r="AU19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX19" t="n">
         <v>19</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>20</v>
       </c>
       <c r="AY19" t="n">
         <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
         <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.45</v>
+        <v>0.444</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,28 +4027,28 @@
         <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.462</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P20" t="n">
         <v>20.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R20" t="n">
         <v>10.5</v>
@@ -3990,16 +4057,16 @@
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U20" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.7</v>
@@ -4017,10 +4084,10 @@
         <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4032,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4059,19 +4126,19 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4083,13 +4150,13 @@
         <v>30</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>0.363</v>
+        <v>0.358</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L21" t="n">
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
         <v>16.7</v>
@@ -4169,10 +4236,10 @@
         <v>10.1</v>
       </c>
       <c r="S21" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
         <v>21.6</v>
@@ -4196,13 +4263,13 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>26</v>
@@ -4247,10 +4314,10 @@
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>13</v>
@@ -4265,7 +4332,7 @@
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
         <v>9</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
         <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.605</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4336,25 +4403,25 @@
         <v>14.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.336</v>
+        <v>0.339</v>
       </c>
       <c r="O22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
         <v>0.805</v>
       </c>
       <c r="R22" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S22" t="n">
         <v>31.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
         <v>19.9</v>
@@ -4363,7 +4430,7 @@
         <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>5.8</v>
@@ -4375,19 +4442,19 @@
         <v>21.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB22" t="n">
         <v>101.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
@@ -4405,7 +4472,7 @@
         <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
         <v>25</v>
@@ -4426,28 +4493,28 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ22" t="n">
         <v>20</v>
@@ -4459,7 +4526,7 @@
         <v>15</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.713</v>
+        <v>0.716</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P23" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.1</v>
@@ -4557,16 +4624,16 @@
         <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>2</v>
@@ -4578,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4596,19 +4663,19 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4638,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC23" t="n">
         <v>1</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>0.338</v>
+        <v>0.333</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,7 +4758,7 @@
         <v>81.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L24" t="n">
         <v>5.8</v>
@@ -4700,25 +4767,25 @@
         <v>16.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
         <v>21</v>
@@ -4742,13 +4809,13 @@
         <v>18.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>24</v>
@@ -4763,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -4778,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
@@ -4787,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR24" t="n">
         <v>11</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4811,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>14</v>
@@ -4820,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC24" t="n">
         <v>24</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -4876,31 +4943,31 @@
         <v>0.492</v>
       </c>
       <c r="L25" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.413</v>
+        <v>0.411</v>
       </c>
       <c r="O25" t="n">
         <v>19.9</v>
       </c>
       <c r="P25" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U25" t="n">
         <v>23.4</v>
@@ -4924,19 +4991,19 @@
         <v>21.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>110.4</v>
+        <v>110.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
         <v>6</v>
@@ -4963,28 +5030,28 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
         <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
@@ -4993,10 +5060,10 @@
         <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
         <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.613</v>
+        <v>0.617</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5055,7 +5122,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>5.9</v>
@@ -5064,7 +5131,7 @@
         <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
         <v>19.6</v>
@@ -5073,37 +5140,37 @@
         <v>24.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T26" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W26" t="n">
         <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
         <v>97.90000000000001</v>
@@ -5112,16 +5179,16 @@
         <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
@@ -5133,13 +5200,13 @@
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
         <v>14</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
@@ -5163,22 +5230,22 @@
         <v>27</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -5231,13 +5298,13 @@
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J27" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
         <v>5.9</v>
@@ -5246,16 +5313,16 @@
         <v>16.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5264,16 +5331,16 @@
         <v>30.8</v>
       </c>
       <c r="T27" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5285,10 +5352,10 @@
         <v>22.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC27" t="n">
         <v>-4.3</v>
@@ -5297,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
@@ -5306,10 +5373,10 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>5</v>
@@ -5318,19 +5385,19 @@
         <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5342,13 +5409,13 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>31</v>
       </c>
       <c r="G28" t="n">
-        <v>0.613</v>
+        <v>0.617</v>
       </c>
       <c r="H28" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I28" t="n">
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L28" t="n">
         <v>6.8</v>
@@ -5431,13 +5498,13 @@
         <v>0.362</v>
       </c>
       <c r="O28" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P28" t="n">
         <v>24.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R28" t="n">
         <v>10.8</v>
@@ -5449,10 +5516,10 @@
         <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.3</v>
@@ -5470,28 +5537,28 @@
         <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5500,46 +5567,46 @@
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>11</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>23</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU28" t="n">
         <v>7</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>10</v>
       </c>
       <c r="AW28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" t="n">
         <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.475</v>
+        <v>0.481</v>
       </c>
       <c r="H29" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I29" t="n">
         <v>38.9</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L29" t="n">
         <v>6.3</v>
@@ -5610,31 +5677,31 @@
         <v>17.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R29" t="n">
         <v>9.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U29" t="n">
         <v>21.9</v>
       </c>
       <c r="V29" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
         <v>5.7</v>
@@ -5643,25 +5710,25 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA29" t="n">
         <v>21.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
         <v>19</v>
@@ -5670,7 +5737,7 @@
         <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
@@ -5694,7 +5761,7 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
         <v>13</v>
@@ -5706,22 +5773,22 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -5765,13 +5832,13 @@
         <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.663</v>
+        <v>0.65</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5780,37 +5847,37 @@
         <v>39.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="L30" t="n">
         <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P30" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R30" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T30" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>26.8</v>
@@ -5828,28 +5895,28 @@
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
         <v>104.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>5</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,10 +5952,10 @@
         <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,10 +5967,10 @@
         <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0.309</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,16 +6029,16 @@
         <v>36.7</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
         <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N31" t="n">
         <v>0.354</v>
@@ -5983,31 +6050,31 @@
         <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
         <v>19</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
         <v>6</v>
       </c>
       <c r="X31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
         <v>21.3</v>
@@ -6019,31 +6086,31 @@
         <v>96.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.1</v>
+        <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>24</v>
@@ -6067,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>17</v>
@@ -6085,13 +6152,13 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2009-10</t>
+          <t>2010-04-13</t>
         </is>
       </c>
     </row>
